--- a/data/trans_orig/P36B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9AE652-FAC4-4011-96F9-EE6B02B4B55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{105C1523-A338-4B7C-85AE-7A4CC7026D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACB3E295-0E8B-41C8-A9BF-4175A8019369}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE912DEF-9060-4034-A285-F687E7DECB86}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="747">
-  <si>
-    <t>Población según la frecuencia de consumición de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="741">
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -85,2200 +85,2182 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2015 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>21,66%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>24,6%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de embutidos y fiambres en 2015 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25AB914-4230-405A-92CB-BC7A2045B77D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8D3A24-80EC-4D86-9F55-899277894732}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3051,10 +3033,10 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3051,13 @@
         <v>115358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -3084,13 +3066,13 @@
         <v>112755</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -3099,18 +3081,18 @@
         <v>228113</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3122,13 +3104,13 @@
         <v>16772</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3137,13 +3119,13 @@
         <v>27384</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3152,13 +3134,13 @@
         <v>44156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3155,13 @@
         <v>48767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>83</v>
@@ -3188,13 +3170,13 @@
         <v>83856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>133</v>
@@ -3203,13 +3185,13 @@
         <v>132623</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3206,13 @@
         <v>158265</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>235</v>
@@ -3239,13 +3221,13 @@
         <v>239484</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>395</v>
@@ -3254,13 +3236,13 @@
         <v>397749</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3257,13 @@
         <v>172111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -3290,13 +3272,13 @@
         <v>156730</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -3305,13 +3287,13 @@
         <v>328842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3308,13 @@
         <v>182739</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -3341,13 +3323,13 @@
         <v>68141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
@@ -3356,13 +3338,13 @@
         <v>250880</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3359,13 @@
         <v>578654</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>568</v>
@@ -3392,13 +3374,13 @@
         <v>575596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1146</v>
@@ -3407,18 +3389,18 @@
         <v>1154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3430,13 +3412,13 @@
         <v>58023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -3445,13 +3427,13 @@
         <v>78383</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -3460,13 +3442,13 @@
         <v>136406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3463,13 @@
         <v>99517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -3496,13 +3478,13 @@
         <v>151935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -3511,13 +3493,13 @@
         <v>251452</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3514,13 @@
         <v>300560</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -3547,13 +3529,13 @@
         <v>435744</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>679</v>
@@ -3562,13 +3544,13 @@
         <v>736304</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3565,13 @@
         <v>308664</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -3598,13 +3580,13 @@
         <v>230023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>508</v>
@@ -3613,13 +3595,13 @@
         <v>538687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3616,13 @@
         <v>190907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -3649,13 +3631,13 @@
         <v>68630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>254</v>
@@ -3664,13 +3646,13 @@
         <v>259537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3667,13 @@
         <v>957671</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>905</v>
@@ -3700,13 +3682,13 @@
         <v>964715</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1798</v>
@@ -3715,18 +3697,18 @@
         <v>1922386</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3738,13 +3720,13 @@
         <v>51718</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -3753,13 +3735,13 @@
         <v>94400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -3768,13 +3750,13 @@
         <v>146118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3771,13 @@
         <v>113943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -3804,13 +3786,13 @@
         <v>154699</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>263</v>
@@ -3819,13 +3801,13 @@
         <v>268642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3822,13 @@
         <v>202431</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H24" s="7">
         <v>255</v>
@@ -3855,13 +3837,13 @@
         <v>251273</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M24" s="7">
         <v>451</v>
@@ -3870,13 +3852,13 @@
         <v>453704</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3873,13 @@
         <v>216977</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>147</v>
@@ -3906,13 +3888,13 @@
         <v>143298</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="M25" s="7">
         <v>347</v>
@@ -3921,13 +3903,13 @@
         <v>360275</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3924,13 @@
         <v>91728</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -3957,13 +3939,13 @@
         <v>38057</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>129</v>
@@ -3972,13 +3954,13 @@
         <v>129785</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3975,13 @@
         <v>676796</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>693</v>
@@ -4008,13 +3990,13 @@
         <v>681728</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1332</v>
@@ -4023,18 +4005,18 @@
         <v>1358524</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4046,13 +4028,13 @@
         <v>45190</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -4061,13 +4043,13 @@
         <v>71017</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>112</v>
@@ -4076,13 +4058,13 @@
         <v>116207</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4079,13 @@
         <v>109709</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -4112,13 +4094,13 @@
         <v>175200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>280</v>
@@ -4127,13 +4109,13 @@
         <v>284909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4130,13 @@
         <v>334072</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>410</v>
@@ -4163,13 +4145,13 @@
         <v>425305</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>761</v>
@@ -4178,13 +4160,13 @@
         <v>759377</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4181,13 @@
         <v>269578</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>231</v>
@@ -4214,13 +4196,13 @@
         <v>238255</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>516</v>
@@ -4229,13 +4211,13 @@
         <v>507833</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4232,13 @@
         <v>181927</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -4265,13 +4247,13 @@
         <v>124759</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>316</v>
@@ -4280,13 +4262,13 @@
         <v>306686</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4283,13 @@
         <v>940476</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>993</v>
@@ -4316,13 +4298,13 @@
         <v>1034536</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1985</v>
@@ -4331,13 +4313,13 @@
         <v>1975012</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4336,13 @@
         <v>171703</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>266</v>
@@ -4369,13 +4351,13 @@
         <v>276358</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>426</v>
@@ -4384,13 +4366,13 @@
         <v>448061</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4387,13 @@
         <v>381950</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>554</v>
@@ -4420,13 +4402,13 @@
         <v>574543</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M35" s="7">
         <v>929</v>
@@ -4435,13 +4417,13 @@
         <v>956492</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4438,13 @@
         <v>1023585</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>1347</v>
@@ -4471,13 +4453,13 @@
         <v>1388027</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>2352</v>
@@ -4486,13 +4468,13 @@
         <v>2411611</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4489,13 @@
         <v>1000941</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>797</v>
@@ -4522,13 +4504,13 @@
         <v>808686</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>1773</v>
@@ -4537,13 +4519,13 @@
         <v>1809627</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4540,13 @@
         <v>690777</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>323</v>
@@ -4573,13 +4555,13 @@
         <v>321716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>1014</v>
@@ -4588,13 +4570,13 @@
         <v>1012493</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4591,13 @@
         <v>3268955</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>3287</v>
@@ -4624,33 +4606,33 @@
         <v>3369330</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>6494</v>
       </c>
       <c r="N39" s="7">
-        <v>6638284</v>
+        <v>6638285</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +4653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E67F8E-BEA7-4B6E-83E7-1F521BE032B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0BA574-8003-40BB-9D11-3C80AF8B3A72}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4688,7 +4670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4795,13 +4777,13 @@
         <v>7473</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4810,13 +4792,13 @@
         <v>12552</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4825,13 +4807,13 @@
         <v>20024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4828,13 @@
         <v>18601</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4861,13 +4843,13 @@
         <v>29117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4876,13 +4858,13 @@
         <v>47718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,10 +4879,10 @@
         <v>29930</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>301</v>
@@ -5032,10 +5014,10 @@
         <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5032,13 @@
         <v>114800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>99</v>
@@ -5065,13 +5047,13 @@
         <v>111905</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>220</v>
@@ -5080,18 +5062,18 @@
         <v>226705</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5103,13 +5085,13 @@
         <v>33491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5118,10 +5100,10 @@
         <v>60039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>328</v>
@@ -5136,10 +5118,10 @@
         <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5136,7 @@
         <v>132096</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>332</v>
@@ -5208,10 +5190,10 @@
         <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H12" s="7">
         <v>203</v>
@@ -5220,13 +5202,13 @@
         <v>219467</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>381</v>
@@ -5235,13 +5217,13 @@
         <v>407988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5238,13 @@
         <v>162571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -5271,10 +5253,10 @@
         <v>111140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>352</v>
@@ -5289,10 +5271,10 @@
         <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +5289,10 @@
         <v>69101</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>357</v>
@@ -5358,13 +5340,13 @@
         <v>585780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>545</v>
@@ -5373,13 +5355,13 @@
         <v>577107</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1096</v>
@@ -5388,18 +5370,18 @@
         <v>1162886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5426,7 +5408,7 @@
         <v>98020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>367</v>
@@ -5447,7 +5429,7 @@
         <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5444,13 @@
         <v>195245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
         <v>257</v>
@@ -5477,13 +5459,13 @@
         <v>279755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>436</v>
@@ -5492,13 +5474,13 @@
         <v>475000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5495,13 @@
         <v>290560</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
         <v>291</v>
@@ -5528,13 +5510,13 @@
         <v>321719</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
         <v>560</v>
@@ -5543,13 +5525,13 @@
         <v>612279</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5546,13 @@
         <v>315091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>210</v>
@@ -5579,13 +5561,13 @@
         <v>231104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>502</v>
@@ -5594,13 +5576,13 @@
         <v>546195</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5597,13 @@
         <v>139062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -5630,13 +5612,13 @@
         <v>96214</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -5645,13 +5627,13 @@
         <v>235276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5648,13 @@
         <v>1012762</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>935</v>
@@ -5681,13 +5663,13 @@
         <v>1026812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1866</v>
@@ -5696,18 +5678,18 @@
         <v>2039574</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5719,13 +5701,13 @@
         <v>57686</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -5734,13 +5716,13 @@
         <v>85023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -5749,13 +5731,13 @@
         <v>142709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5752,13 @@
         <v>140900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H23" s="7">
         <v>165</v>
@@ -5785,13 +5767,13 @@
         <v>182326</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
         <v>287</v>
@@ -5800,13 +5782,13 @@
         <v>323226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5803,13 @@
         <v>210291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>422</v>
+        <v>227</v>
       </c>
       <c r="H24" s="7">
         <v>221</v>
@@ -5836,13 +5818,13 @@
         <v>245941</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -5851,13 +5833,13 @@
         <v>456232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>428</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5854,13 @@
         <v>193584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>145</v>
@@ -5887,13 +5869,13 @@
         <v>154652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>323</v>
@@ -5902,13 +5884,13 @@
         <v>348235</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,13 +5905,13 @@
         <v>150848</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>95</v>
@@ -5938,13 +5920,13 @@
         <v>105980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>232</v>
@@ -5953,13 +5935,13 @@
         <v>256829</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>32</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5956,13 @@
         <v>753309</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>702</v>
@@ -5989,13 +5971,13 @@
         <v>773921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1387</v>
@@ -6004,18 +5986,18 @@
         <v>1527230</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6027,13 +6009,13 @@
         <v>68431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H28" s="7">
         <v>131</v>
@@ -6042,13 +6024,13 @@
         <v>142847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -6057,13 +6039,13 @@
         <v>211278</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6060,13 @@
         <v>212243</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>312</v>
@@ -6093,13 +6075,13 @@
         <v>324796</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>506</v>
@@ -6108,13 +6090,13 @@
         <v>537039</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6111,13 @@
         <v>314162</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>463</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H30" s="7">
         <v>291</v>
@@ -6144,13 +6126,13 @@
         <v>303999</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>467</v>
       </c>
       <c r="M30" s="7">
         <v>598</v>
@@ -6159,13 +6141,13 @@
         <v>618161</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6162,13 @@
         <v>223703</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H31" s="7">
         <v>173</v>
@@ -6195,13 +6177,13 @@
         <v>179499</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M31" s="7">
         <v>389</v>
@@ -6210,13 +6192,13 @@
         <v>403202</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6213,13 @@
         <v>122847</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -6246,13 +6228,13 @@
         <v>93669</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>476</v>
+        <v>364</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -6261,13 +6243,13 @@
         <v>216516</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>29</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6264,13 @@
         <v>941386</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>997</v>
@@ -6297,13 +6279,13 @@
         <v>1044810</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1901</v>
@@ -6312,13 +6294,13 @@
         <v>1986196</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6317,13 @@
         <v>239885</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H34" s="7">
         <v>363</v>
@@ -6350,13 +6332,13 @@
         <v>398481</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
         <v>583</v>
@@ -6365,13 +6347,13 @@
         <v>638365</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6368,13 @@
         <v>699084</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H35" s="7">
         <v>899</v>
@@ -6401,13 +6383,13 @@
         <v>961028</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>52</v>
+        <v>498</v>
       </c>
       <c r="M35" s="7">
         <v>1534</v>
@@ -6416,13 +6398,13 @@
         <v>1660112</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6419,13 @@
         <v>1033464</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>497</v>
+        <v>381</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H36" s="7">
         <v>1044</v>
@@ -6455,25 +6437,25 @@
         <v>34</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M36" s="7">
         <v>2025</v>
       </c>
       <c r="N36" s="7">
-        <v>2168787</v>
+        <v>2168788</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6470,13 @@
         <v>934809</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>505</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H37" s="7">
         <v>656</v>
@@ -6503,13 +6485,13 @@
         <v>700408</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>508</v>
+        <v>122</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>509</v>
+        <v>275</v>
       </c>
       <c r="M37" s="7">
         <v>1535</v>
@@ -6518,13 +6500,13 @@
         <v>1635217</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6521,13 @@
         <v>500795</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>514</v>
+        <v>188</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H38" s="7">
         <v>316</v>
@@ -6554,25 +6536,25 @@
         <v>339314</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M38" s="7">
         <v>793</v>
       </c>
       <c r="N38" s="7">
-        <v>840108</v>
+        <v>840109</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>520</v>
+        <v>403</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>521</v>
@@ -6587,16 +6569,16 @@
         <v>3192</v>
       </c>
       <c r="D39" s="7">
-        <v>3408036</v>
+        <v>3408037</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>3278</v>
@@ -6605,33 +6587,33 @@
         <v>3534554</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>6470</v>
       </c>
       <c r="N39" s="7">
-        <v>6942590</v>
+        <v>6942591</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6652,7 +6634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3A007D-0FAB-4F8A-9C50-45200820C5DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1AB374-DCB7-496A-A735-F04FFE715324}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6782,7 +6764,7 @@
         <v>524</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>525</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6791,13 +6773,13 @@
         <v>13673</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -6806,13 +6788,13 @@
         <v>16661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6809,13 @@
         <v>23038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6842,13 +6824,13 @@
         <v>23970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>535</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -6857,13 +6839,13 @@
         <v>47008</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>533</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6860,13 @@
         <v>39634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>539</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -6893,13 +6875,13 @@
         <v>30408</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -6908,13 +6890,13 @@
         <v>70041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6911,13 @@
         <v>33983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>547</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>544</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -6944,13 +6926,13 @@
         <v>33441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -6959,13 +6941,13 @@
         <v>67424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6962,13 @@
         <v>16903</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>555</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -6995,13 +6977,13 @@
         <v>10988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>554</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>555</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -7010,13 +6992,13 @@
         <v>27891</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7013,13 @@
         <v>116546</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -7046,13 +7028,13 @@
         <v>112480</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>227</v>
@@ -7061,18 +7043,18 @@
         <v>229026</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7084,13 +7066,13 @@
         <v>38421</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>562</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>563</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7099,13 +7081,13 @@
         <v>71652</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -7114,13 +7096,13 @@
         <v>110073</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7117,13 @@
         <v>105898</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -7150,13 +7132,13 @@
         <v>134475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>572</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>573</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -7165,13 +7147,13 @@
         <v>240373</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7168,13 @@
         <v>223366</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H12" s="7">
         <v>215</v>
@@ -7201,13 +7183,13 @@
         <v>218984</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M12" s="7">
         <v>429</v>
@@ -7216,13 +7198,13 @@
         <v>442349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7219,13 @@
         <v>134907</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -7252,13 +7234,13 @@
         <v>110904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -7267,13 +7249,13 @@
         <v>245811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>591</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7270,13 @@
         <v>51285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>594</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -7303,13 +7285,13 @@
         <v>23465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7318,13 +7300,13 @@
         <v>74750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>599</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7321,13 @@
         <v>553876</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>551</v>
@@ -7354,13 +7336,13 @@
         <v>559479</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1086</v>
@@ -7369,18 +7351,18 @@
         <v>1113355</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7392,13 +7374,13 @@
         <v>62466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>597</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -7407,13 +7389,13 @@
         <v>83074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
@@ -7422,13 +7404,13 @@
         <v>145540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7425,13 @@
         <v>170884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -7458,13 +7440,13 @@
         <v>257640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -7473,13 +7455,13 @@
         <v>428524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7476,13 @@
         <v>407268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H18" s="7">
         <v>405</v>
@@ -7509,13 +7491,13 @@
         <v>429716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="M18" s="7">
         <v>784</v>
@@ -7524,13 +7506,13 @@
         <v>836984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>618</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7527,13 @@
         <v>286312</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -7560,13 +7542,13 @@
         <v>220745</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>464</v>
+        <v>622</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="M19" s="7">
         <v>476</v>
@@ -7575,13 +7557,13 @@
         <v>507057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,13 +7578,13 @@
         <v>93340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -7611,13 +7593,13 @@
         <v>50712</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>632</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -7626,13 +7608,13 @@
         <v>144052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>637</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,13 +7629,13 @@
         <v>1020270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>976</v>
@@ -7662,13 +7644,13 @@
         <v>1041887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1925</v>
@@ -7677,18 +7659,18 @@
         <v>2062157</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7700,13 +7682,13 @@
         <v>37075</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>641</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>200</v>
+        <v>637</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -7715,13 +7697,13 @@
         <v>51690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>644</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -7730,13 +7712,13 @@
         <v>88766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7733,13 @@
         <v>85545</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -7766,13 +7748,13 @@
         <v>150017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="M23" s="7">
         <v>217</v>
@@ -7781,13 +7763,13 @@
         <v>235561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7784,13 @@
         <v>306973</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="H24" s="7">
         <v>265</v>
@@ -7820,10 +7802,10 @@
         <v>44</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>653</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M24" s="7">
         <v>545</v>
@@ -7832,13 +7814,13 @@
         <v>587362</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7835,13 @@
         <v>223607</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -7868,13 +7850,13 @@
         <v>220186</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>663</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -7883,13 +7865,13 @@
         <v>443793</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>668</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,13 +7886,13 @@
         <v>105488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -7919,13 +7901,13 @@
         <v>80633</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>674</v>
+        <v>603</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="M26" s="7">
         <v>176</v>
@@ -7934,13 +7916,13 @@
         <v>186121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7937,13 @@
         <v>758688</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>734</v>
@@ -7970,13 +7952,13 @@
         <v>782916</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1429</v>
@@ -7985,18 +7967,18 @@
         <v>1541603</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8008,13 +7990,13 @@
         <v>76158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H28" s="7">
         <v>93</v>
@@ -8023,13 +8005,13 @@
         <v>104015</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -8038,13 +8020,13 @@
         <v>180173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>683</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>678</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8041,13 @@
         <v>167711</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>685</v>
+        <v>239</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>416</v>
+        <v>681</v>
       </c>
       <c r="H29" s="7">
         <v>207</v>
@@ -8074,13 +8056,13 @@
         <v>227378</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>684</v>
       </c>
       <c r="M29" s="7">
         <v>377</v>
@@ -8089,13 +8071,13 @@
         <v>395089</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>688</v>
+        <v>393</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8092,13 @@
         <v>329172</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H30" s="7">
         <v>351</v>
@@ -8125,13 +8107,13 @@
         <v>377168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>694</v>
+        <v>575</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="M30" s="7">
         <v>681</v>
@@ -8140,13 +8122,13 @@
         <v>706341</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8143,13 @@
         <v>247379</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>266</v>
+        <v>512</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H31" s="7">
         <v>211</v>
@@ -8176,13 +8158,13 @@
         <v>232743</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>704</v>
+        <v>456</v>
       </c>
       <c r="M31" s="7">
         <v>460</v>
@@ -8191,13 +8173,13 @@
         <v>480123</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>705</v>
+        <v>477</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>706</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,13 +8194,13 @@
         <v>113184</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>148</v>
+        <v>698</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>487</v>
+        <v>699</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H32" s="7">
         <v>92</v>
@@ -8230,10 +8212,10 @@
         <v>321</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
@@ -8242,13 +8224,13 @@
         <v>209114</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>712</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8245,13 @@
         <v>933606</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>954</v>
@@ -8278,13 +8260,13 @@
         <v>1037234</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1882</v>
@@ -8293,13 +8275,13 @@
         <v>1970840</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8298,13 @@
         <v>217108</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>713</v>
+        <v>330</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>706</v>
       </c>
       <c r="H34" s="7">
         <v>298</v>
@@ -8331,13 +8313,13 @@
         <v>324104</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="M34" s="7">
         <v>498</v>
@@ -8346,13 +8328,13 @@
         <v>541213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>644</v>
+        <v>711</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8349,13 @@
         <v>553076</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="H35" s="7">
         <v>739</v>
@@ -8382,13 +8364,13 @@
         <v>793479</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>511</v>
+        <v>715</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="M35" s="7">
         <v>1274</v>
@@ -8397,13 +8379,13 @@
         <v>1346555</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,16 +8397,16 @@
         <v>1241</v>
       </c>
       <c r="D36" s="7">
-        <v>1306412</v>
+        <v>1306413</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>728</v>
+        <v>88</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="H36" s="7">
         <v>1267</v>
@@ -8433,13 +8415,13 @@
         <v>1336665</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>731</v>
+        <v>551</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>732</v>
+        <v>302</v>
       </c>
       <c r="M36" s="7">
         <v>2508</v>
@@ -8448,13 +8430,13 @@
         <v>2643077</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8451,13 @@
         <v>926188</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="H37" s="7">
         <v>771</v>
@@ -8484,13 +8466,13 @@
         <v>818019</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>414</v>
+        <v>730</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="M37" s="7">
         <v>1657</v>
@@ -8499,13 +8481,13 @@
         <v>1744207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>437</v>
+        <v>732</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>576</v>
+        <v>733</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>740</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,13 +8502,13 @@
         <v>380201</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>29</v>
+        <v>736</v>
       </c>
       <c r="H38" s="7">
         <v>254</v>
@@ -8535,13 +8517,13 @@
         <v>261728</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>708</v>
+        <v>737</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>642</v>
+        <v>738</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>743</v>
+        <v>27</v>
       </c>
       <c r="M38" s="7">
         <v>612</v>
@@ -8550,13 +8532,13 @@
         <v>641929</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>744</v>
+        <v>449</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,16 +8550,16 @@
         <v>3220</v>
       </c>
       <c r="D39" s="7">
-        <v>3382985</v>
+        <v>3382986</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>3329</v>
@@ -8586,13 +8568,13 @@
         <v>3533996</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>6549</v>
@@ -8601,18 +8583,18 @@
         <v>6916981</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{105C1523-A338-4B7C-85AE-7A4CC7026D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33251BCB-A14C-4F2D-ABC7-A7E563D1E9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE912DEF-9060-4034-A285-F687E7DECB86}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{123ADE4A-18DD-40E5-87FB-861400A30E01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="746">
   <si>
     <t>Población según la frecuencia de consumo de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -85,19 +85,19 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -106,2161 +106,2176 @@
     <t>8,68%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>5,19%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2015 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>8,61%</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8D3A24-80EC-4D86-9F55-899277894732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C35C54-C31F-4FDA-8517-1A12DD8BC56F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3634,10 +3649,10 @@
         <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>254</v>
@@ -3646,13 +3661,13 @@
         <v>259537</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3723,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3720,13 +3735,13 @@
         <v>51718</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -3735,13 +3750,13 @@
         <v>94400</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -3750,13 +3765,13 @@
         <v>146118</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3786,13 @@
         <v>113943</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -3786,13 +3801,13 @@
         <v>154699</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>263</v>
@@ -3801,13 +3816,13 @@
         <v>268642</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3837,13 @@
         <v>202431</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H24" s="7">
         <v>255</v>
@@ -3837,13 +3852,13 @@
         <v>251273</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M24" s="7">
         <v>451</v>
@@ -3852,13 +3867,13 @@
         <v>453704</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3888,13 @@
         <v>216977</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>147</v>
@@ -3888,13 +3903,13 @@
         <v>143298</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M25" s="7">
         <v>347</v>
@@ -3903,7 +3918,7 @@
         <v>360275</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>186</v>
@@ -4148,10 +4163,10 @@
         <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>761</v>
@@ -4160,13 +4175,13 @@
         <v>759377</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4196,13 @@
         <v>269578</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>231</v>
@@ -4196,13 +4211,13 @@
         <v>238255</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>516</v>
@@ -4211,13 +4226,13 @@
         <v>507833</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4247,13 @@
         <v>181927</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -4247,13 +4262,13 @@
         <v>124759</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>316</v>
@@ -4262,13 +4277,13 @@
         <v>306686</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4351,13 @@
         <v>171703</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>266</v>
@@ -4351,13 +4366,13 @@
         <v>276358</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>426</v>
@@ -4366,13 +4381,13 @@
         <v>448061</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4402,13 @@
         <v>381950</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>554</v>
@@ -4402,13 +4417,13 @@
         <v>574543</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>929</v>
@@ -4417,13 +4432,13 @@
         <v>956492</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4450,13 @@
         <v>1005</v>
       </c>
       <c r="D36" s="7">
-        <v>1023585</v>
+        <v>1023584</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>259</v>
@@ -4588,7 +4603,7 @@
         <v>3207</v>
       </c>
       <c r="D39" s="7">
-        <v>3268955</v>
+        <v>3268954</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -4653,7 +4668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0BA574-8003-40BB-9D11-3C80AF8B3A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07325189-3276-41B2-B1C3-78B0D33AAEEC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4777,13 +4792,13 @@
         <v>7473</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4792,13 +4807,13 @@
         <v>12552</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4807,13 +4822,13 @@
         <v>20024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4843,13 @@
         <v>18601</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4843,13 +4858,13 @@
         <v>29117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4858,13 +4873,13 @@
         <v>47718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>45</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4894,13 @@
         <v>29930</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -4894,13 +4909,13 @@
         <v>44198</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -4909,13 +4924,13 @@
         <v>74128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4945,13 @@
         <v>39860</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -4945,13 +4960,13 @@
         <v>24014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4960,13 +4975,13 @@
         <v>63874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4996,13 @@
         <v>18936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5002,7 +5017,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5011,13 +5026,13 @@
         <v>20960</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5100,13 @@
         <v>33491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5100,13 +5115,13 @@
         <v>60039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -5115,13 +5130,13 @@
         <v>93530</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5151,13 @@
         <v>132096</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -5151,13 +5166,13 @@
         <v>145034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>260</v>
@@ -5166,13 +5181,13 @@
         <v>277129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5202,13 @@
         <v>188521</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>203</v>
@@ -5223,7 +5238,7 @@
         <v>347</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>132</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5253,13 @@
         <v>162571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -5253,13 +5268,13 @@
         <v>111140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -5268,13 +5283,13 @@
         <v>273711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5304,13 @@
         <v>69101</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -5304,13 +5319,13 @@
         <v>41427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -5319,13 +5334,13 @@
         <v>110528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5408,13 @@
         <v>72805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5411,10 +5426,10 @@
         <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -5423,13 +5438,13 @@
         <v>170825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5459,13 @@
         <v>195245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>257</v>
@@ -5459,13 +5474,13 @@
         <v>279755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>436</v>
@@ -5474,13 +5489,13 @@
         <v>475000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5510,13 @@
         <v>290560</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H18" s="7">
         <v>291</v>
@@ -5510,13 +5525,13 @@
         <v>321719</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M18" s="7">
         <v>560</v>
@@ -5525,13 +5540,13 @@
         <v>612279</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5561,13 @@
         <v>315091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>210</v>
@@ -5561,13 +5576,13 @@
         <v>231104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>502</v>
@@ -5576,13 +5591,13 @@
         <v>546195</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5612,13 @@
         <v>139062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -5612,13 +5627,13 @@
         <v>96214</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -5627,13 +5642,13 @@
         <v>235276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,7 +5675,7 @@
         <v>935</v>
       </c>
       <c r="I21" s="7">
-        <v>1026812</v>
+        <v>1026811</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5689,7 +5704,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5701,13 +5716,13 @@
         <v>57686</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -5716,13 +5731,13 @@
         <v>85023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -5731,13 +5746,13 @@
         <v>142709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5767,13 @@
         <v>140900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
         <v>165</v>
@@ -5767,13 +5782,13 @@
         <v>182326</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>287</v>
@@ -5782,13 +5797,13 @@
         <v>323226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5818,13 @@
         <v>210291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>227</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>221</v>
@@ -5818,13 +5833,13 @@
         <v>245941</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>427</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -5833,13 +5848,13 @@
         <v>456232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5869,13 @@
         <v>193584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>145</v>
@@ -5869,13 +5884,13 @@
         <v>154652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>323</v>
@@ -5884,13 +5899,13 @@
         <v>348235</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5920,13 @@
         <v>150848</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>95</v>
@@ -5920,13 +5935,13 @@
         <v>105980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>232</v>
@@ -5935,13 +5950,13 @@
         <v>256829</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>211</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6024,13 @@
         <v>68431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>131</v>
@@ -6024,13 +6039,13 @@
         <v>142847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -6039,13 +6054,13 @@
         <v>211278</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6075,13 @@
         <v>212243</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>312</v>
@@ -6075,13 +6090,13 @@
         <v>324796</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M29" s="7">
         <v>506</v>
@@ -6090,13 +6105,13 @@
         <v>537039</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6126,13 @@
         <v>314162</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H30" s="7">
         <v>291</v>
@@ -6126,13 +6141,13 @@
         <v>303999</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>467</v>
+        <v>341</v>
       </c>
       <c r="M30" s="7">
         <v>598</v>
@@ -6141,13 +6156,13 @@
         <v>618161</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>470</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6177,13 @@
         <v>223703</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>470</v>
+        <v>275</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H31" s="7">
         <v>173</v>
@@ -6177,13 +6192,13 @@
         <v>179499</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M31" s="7">
         <v>389</v>
@@ -6192,13 +6207,13 @@
         <v>403202</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6228,13 @@
         <v>122847</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -6228,13 +6243,13 @@
         <v>93669</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>364</v>
+        <v>247</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -6243,13 +6258,13 @@
         <v>216516</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6332,13 @@
         <v>239885</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>485</v>
+        <v>246</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H34" s="7">
         <v>363</v>
@@ -6332,13 +6347,13 @@
         <v>398481</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>119</v>
       </c>
       <c r="M34" s="7">
         <v>583</v>
@@ -6347,13 +6362,13 @@
         <v>638365</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>491</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,7 +6383,7 @@
         <v>699084</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>494</v>
@@ -6386,10 +6401,10 @@
         <v>496</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>498</v>
+        <v>45</v>
       </c>
       <c r="M35" s="7">
         <v>1534</v>
@@ -6398,13 +6413,13 @@
         <v>1660112</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6434,13 @@
         <v>1033464</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H36" s="7">
         <v>1044</v>
@@ -6437,10 +6452,10 @@
         <v>34</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M36" s="7">
         <v>2025</v>
@@ -6449,13 +6464,13 @@
         <v>2168788</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,10 +6485,10 @@
         <v>934809</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>510</v>
@@ -6488,10 +6503,10 @@
         <v>511</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>122</v>
+        <v>512</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>275</v>
+        <v>513</v>
       </c>
       <c r="M37" s="7">
         <v>1535</v>
@@ -6500,13 +6515,13 @@
         <v>1635217</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6536,13 @@
         <v>500795</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>188</v>
+        <v>518</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H38" s="7">
         <v>316</v>
@@ -6536,13 +6551,13 @@
         <v>339314</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M38" s="7">
         <v>793</v>
@@ -6551,13 +6566,13 @@
         <v>840109</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>403</v>
+        <v>524</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,7 +6584,7 @@
         <v>3192</v>
       </c>
       <c r="D39" s="7">
-        <v>3408037</v>
+        <v>3408036</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -6634,7 +6649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1AB374-DCB7-496A-A735-F04FFE715324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC1C78D-8B1A-47D6-AC9E-7D380B7E95C8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6651,7 +6666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6758,13 +6773,13 @@
         <v>2988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>529</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6773,13 +6788,13 @@
         <v>13673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>531</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -6788,13 +6803,13 @@
         <v>16661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +6824,13 @@
         <v>23038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>529</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6824,13 +6839,13 @@
         <v>23970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -6839,13 +6854,13 @@
         <v>47008</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6875,13 @@
         <v>39634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>543</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -6875,13 +6890,13 @@
         <v>30408</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -6890,13 +6905,13 @@
         <v>70041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6926,13 @@
         <v>33983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>551</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -6926,13 +6941,13 @@
         <v>33441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -6941,13 +6956,13 @@
         <v>67424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6977,13 @@
         <v>16903</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>559</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -6977,13 +6992,13 @@
         <v>10988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>554</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -6992,13 +7007,13 @@
         <v>27891</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>558</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7081,13 @@
         <v>38421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>567</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7081,13 +7096,13 @@
         <v>71652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>562</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>564</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -7096,13 +7111,13 @@
         <v>110073</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>565</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7132,13 @@
         <v>105898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -7132,13 +7147,13 @@
         <v>134475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>574</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>575</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -7147,13 +7162,13 @@
         <v>240373</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>573</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7183,13 @@
         <v>223366</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H12" s="7">
         <v>215</v>
@@ -7183,13 +7198,13 @@
         <v>218984</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M12" s="7">
         <v>429</v>
@@ -7198,13 +7213,13 @@
         <v>442349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7234,13 @@
         <v>134907</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -7237,10 +7252,10 @@
         <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -7249,13 +7264,13 @@
         <v>245811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>592</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,13 +7285,13 @@
         <v>51285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>594</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>590</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -7285,13 +7300,13 @@
         <v>23465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>598</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7300,13 +7315,13 @@
         <v>74750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>27</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7389,13 @@
         <v>62466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -7389,13 +7404,13 @@
         <v>83074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
@@ -7404,13 +7419,13 @@
         <v>145540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7440,13 @@
         <v>170884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>611</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -7440,13 +7455,13 @@
         <v>257640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>613</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -7455,13 +7470,13 @@
         <v>428524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7491,13 @@
         <v>407268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="H18" s="7">
         <v>405</v>
@@ -7491,13 +7506,13 @@
         <v>429716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="M18" s="7">
         <v>784</v>
@@ -7506,13 +7521,13 @@
         <v>836984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,13 +7542,13 @@
         <v>286312</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>506</v>
+        <v>630</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -7542,13 +7557,13 @@
         <v>220745</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>622</v>
+        <v>513</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="M19" s="7">
         <v>476</v>
@@ -7557,13 +7572,13 @@
         <v>507057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>625</v>
+        <v>516</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>627</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7593,13 @@
         <v>93340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -7593,13 +7608,13 @@
         <v>50712</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -7608,13 +7623,13 @@
         <v>144052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>640</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>634</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7670,7 +7685,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7682,13 +7697,13 @@
         <v>37075</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>643</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -7697,13 +7712,13 @@
         <v>51690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -7712,13 +7727,13 @@
         <v>88766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>14</v>
+        <v>648</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7748,13 @@
         <v>85545</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>630</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -7748,13 +7763,13 @@
         <v>150017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>644</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="M23" s="7">
         <v>217</v>
@@ -7763,13 +7778,13 @@
         <v>235561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>648</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7799,13 @@
         <v>306973</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>650</v>
+        <v>175</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H24" s="7">
         <v>265</v>
@@ -7802,10 +7817,10 @@
         <v>44</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="M24" s="7">
         <v>545</v>
@@ -7814,13 +7829,13 @@
         <v>587362</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,13 +7850,13 @@
         <v>223607</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>659</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -7850,13 +7865,13 @@
         <v>220186</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -7865,13 +7880,13 @@
         <v>443793</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>669</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>665</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7901,13 @@
         <v>105488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -7901,13 +7916,13 @@
         <v>80633</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="M26" s="7">
         <v>176</v>
@@ -7916,13 +7931,13 @@
         <v>186121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +8005,13 @@
         <v>76158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>635</v>
+        <v>678</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="H28" s="7">
         <v>93</v>
@@ -8005,13 +8020,13 @@
         <v>104015</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>677</v>
+        <v>242</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>520</v>
+        <v>682</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -8020,13 +8035,13 @@
         <v>180173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>683</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>679</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8056,13 @@
         <v>167711</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>239</v>
+        <v>686</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>681</v>
+        <v>574</v>
       </c>
       <c r="H29" s="7">
         <v>207</v>
@@ -8056,13 +8071,13 @@
         <v>227378</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>684</v>
+        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>377</v>
@@ -8071,13 +8086,13 @@
         <v>395089</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>393</v>
+        <v>689</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,13 +8107,13 @@
         <v>329172</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>340</v>
+        <v>693</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="H30" s="7">
         <v>351</v>
@@ -8107,13 +8122,13 @@
         <v>377168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>575</v>
+        <v>695</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="M30" s="7">
         <v>681</v>
@@ -8122,13 +8137,13 @@
         <v>706341</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8143,13 +8158,13 @@
         <v>247379</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="H31" s="7">
         <v>211</v>
@@ -8158,13 +8173,13 @@
         <v>232743</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>456</v>
+        <v>705</v>
       </c>
       <c r="M31" s="7">
         <v>460</v>
@@ -8173,13 +8188,13 @@
         <v>480123</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>477</v>
+        <v>706</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>339</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8194,13 +8209,13 @@
         <v>113184</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>700</v>
+        <v>281</v>
       </c>
       <c r="H32" s="7">
         <v>92</v>
@@ -8209,13 +8224,13 @@
         <v>95930</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
@@ -8224,13 +8239,13 @@
         <v>209114</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>704</v>
+        <v>159</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,13 +8313,13 @@
         <v>217108</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H34" s="7">
         <v>298</v>
@@ -8313,13 +8328,13 @@
         <v>324104</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>708</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="M34" s="7">
         <v>498</v>
@@ -8328,13 +8343,13 @@
         <v>541213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>710</v>
+        <v>415</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>358</v>
+        <v>147</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,13 +8364,13 @@
         <v>553076</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>713</v>
+        <v>476</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="H35" s="7">
         <v>739</v>
@@ -8364,13 +8379,13 @@
         <v>793479</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>715</v>
+        <v>270</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="M35" s="7">
         <v>1274</v>
@@ -8379,13 +8394,13 @@
         <v>1346555</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,16 +8412,16 @@
         <v>1241</v>
       </c>
       <c r="D36" s="7">
-        <v>1306413</v>
+        <v>1306412</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>88</v>
+        <v>727</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="H36" s="7">
         <v>1267</v>
@@ -8415,13 +8430,13 @@
         <v>1336665</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>551</v>
+        <v>730</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>302</v>
+        <v>731</v>
       </c>
       <c r="M36" s="7">
         <v>2508</v>
@@ -8430,13 +8445,13 @@
         <v>2643077</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>651</v>
+        <v>733</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8451,13 +8466,13 @@
         <v>926188</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>727</v>
+        <v>96</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>728</v>
+        <v>464</v>
       </c>
       <c r="H37" s="7">
         <v>771</v>
@@ -8466,13 +8481,13 @@
         <v>818019</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>731</v>
+        <v>516</v>
       </c>
       <c r="M37" s="7">
         <v>1657</v>
@@ -8481,13 +8496,13 @@
         <v>1744207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>306</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8502,13 +8517,13 @@
         <v>380201</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="H38" s="7">
         <v>254</v>
@@ -8517,13 +8532,13 @@
         <v>261728</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>738</v>
+        <v>285</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>27</v>
+        <v>609</v>
       </c>
       <c r="M38" s="7">
         <v>612</v>
@@ -8532,13 +8547,13 @@
         <v>641929</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>449</v>
+        <v>744</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>740</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8550,7 +8565,7 @@
         <v>3220</v>
       </c>
       <c r="D39" s="7">
-        <v>3382986</v>
+        <v>3382985</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>

--- a/data/trans_orig/P36B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33251BCB-A14C-4F2D-ABC7-A7E563D1E9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55257365-4978-4283-B5A0-0CFF7B5D8118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{123ADE4A-18DD-40E5-87FB-861400A30E01}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F00BC53E-4527-451F-98B7-99B0BFBC47AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="747">
   <si>
     <t>Población según la frecuencia de consumo de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -88,16 +88,16 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>9,72%</t>
+    <t>10,64%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -106,28 +106,28 @@
     <t>8,68%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -136,28 +136,28 @@
     <t>24,49%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -166,2116 +166,2119 @@
     <t>29,14%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>26,25%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>8,61%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C35C54-C31F-4FDA-8517-1A12DD8BC56F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F02E640-4B9E-4A18-8579-E060A784D6C6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3048,10 +3051,10 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3069,13 @@
         <v>115358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -3081,13 +3084,13 @@
         <v>112755</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -3096,18 +3099,18 @@
         <v>228113</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3119,13 +3122,13 @@
         <v>16772</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3134,13 +3137,13 @@
         <v>27384</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3149,13 +3152,13 @@
         <v>44156</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3173,13 @@
         <v>48767</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>83</v>
@@ -3185,13 +3188,13 @@
         <v>83856</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>133</v>
@@ -3200,13 +3203,13 @@
         <v>132623</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3224,13 @@
         <v>158265</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>235</v>
@@ -3236,13 +3239,13 @@
         <v>239484</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>395</v>
@@ -3251,13 +3254,13 @@
         <v>397749</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3275,13 @@
         <v>172111</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -3287,13 +3290,13 @@
         <v>156730</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -3302,13 +3305,13 @@
         <v>328842</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3326,13 @@
         <v>182739</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -3338,13 +3341,13 @@
         <v>68141</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
@@ -3353,13 +3356,13 @@
         <v>250880</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3377,13 @@
         <v>578654</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>568</v>
@@ -3389,13 +3392,13 @@
         <v>575596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1146</v>
@@ -3404,18 +3407,18 @@
         <v>1154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3427,13 +3430,13 @@
         <v>58023</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -3442,13 +3445,13 @@
         <v>78383</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -3457,13 +3460,13 @@
         <v>136406</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3481,13 @@
         <v>99517</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -3493,13 +3496,13 @@
         <v>151935</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -3508,13 +3511,13 @@
         <v>251452</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3532,13 @@
         <v>300560</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -3544,13 +3547,13 @@
         <v>435744</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>679</v>
@@ -3559,13 +3562,13 @@
         <v>736304</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3583,13 @@
         <v>308664</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -3595,13 +3598,13 @@
         <v>230023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>508</v>
@@ -3610,13 +3613,13 @@
         <v>538687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3634,13 @@
         <v>190907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -3646,13 +3649,13 @@
         <v>68630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>254</v>
@@ -3661,13 +3664,13 @@
         <v>259537</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3685,13 @@
         <v>957671</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>905</v>
@@ -3697,13 +3700,13 @@
         <v>964715</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1798</v>
@@ -3712,18 +3715,18 @@
         <v>1922386</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3735,13 +3738,13 @@
         <v>51718</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -3750,13 +3753,13 @@
         <v>94400</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -3765,13 +3768,13 @@
         <v>146118</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3789,13 @@
         <v>113943</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -3801,13 +3804,13 @@
         <v>154699</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>263</v>
@@ -3816,13 +3819,13 @@
         <v>268642</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3840,13 @@
         <v>202431</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>255</v>
@@ -3852,13 +3855,13 @@
         <v>251273</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>451</v>
@@ -3867,13 +3870,13 @@
         <v>453704</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3891,13 @@
         <v>216977</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>147</v>
@@ -3903,13 +3906,13 @@
         <v>143298</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>347</v>
@@ -3918,13 +3921,13 @@
         <v>360275</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3942,13 @@
         <v>91728</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -3954,13 +3957,13 @@
         <v>38057</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>129</v>
@@ -3969,13 +3972,13 @@
         <v>129785</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3993,13 @@
         <v>676796</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>693</v>
@@ -4005,13 +4008,13 @@
         <v>681728</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1332</v>
@@ -4020,18 +4023,18 @@
         <v>1358524</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4043,13 +4046,13 @@
         <v>45190</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -4058,13 +4061,13 @@
         <v>71017</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>112</v>
@@ -4073,13 +4076,13 @@
         <v>116207</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4097,13 @@
         <v>109709</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -4109,13 +4112,13 @@
         <v>175200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>280</v>
@@ -4124,13 +4127,13 @@
         <v>284909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4148,13 @@
         <v>334072</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>410</v>
@@ -4160,13 +4163,13 @@
         <v>425305</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>761</v>
@@ -4175,13 +4178,13 @@
         <v>759377</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4199,13 @@
         <v>269578</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>231</v>
@@ -4211,13 +4214,13 @@
         <v>238255</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>516</v>
@@ -4226,13 +4229,13 @@
         <v>507833</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4250,13 @@
         <v>181927</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -4262,13 +4265,13 @@
         <v>124759</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>316</v>
@@ -4277,13 +4280,13 @@
         <v>306686</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4301,13 @@
         <v>940476</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>993</v>
@@ -4313,13 +4316,13 @@
         <v>1034536</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1985</v>
@@ -4328,13 +4331,13 @@
         <v>1975012</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4354,13 @@
         <v>171703</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>266</v>
@@ -4366,13 +4369,13 @@
         <v>276358</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>426</v>
@@ -4381,13 +4384,13 @@
         <v>448061</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4405,13 @@
         <v>381950</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="H35" s="7">
         <v>554</v>
@@ -4417,13 +4420,13 @@
         <v>574543</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>929</v>
@@ -4432,13 +4435,13 @@
         <v>956492</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,16 +4453,16 @@
         <v>1005</v>
       </c>
       <c r="D36" s="7">
-        <v>1023584</v>
+        <v>1023585</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>1347</v>
@@ -4468,13 +4471,13 @@
         <v>1388027</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M36" s="7">
         <v>2352</v>
@@ -4483,13 +4486,13 @@
         <v>2411611</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4507,13 @@
         <v>1000941</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H37" s="7">
         <v>797</v>
@@ -4519,13 +4522,13 @@
         <v>808686</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>1773</v>
@@ -4534,13 +4537,13 @@
         <v>1809627</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4558,13 @@
         <v>690777</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>323</v>
@@ -4570,13 +4573,13 @@
         <v>321716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>1014</v>
@@ -4585,13 +4588,13 @@
         <v>1012493</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,16 +4606,16 @@
         <v>3207</v>
       </c>
       <c r="D39" s="7">
-        <v>3268954</v>
+        <v>3268955</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>3287</v>
@@ -4621,33 +4624,33 @@
         <v>3369330</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>6494</v>
       </c>
       <c r="N39" s="7">
-        <v>6638285</v>
+        <v>6638284</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +4671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07325189-3276-41B2-B1C3-78B0D33AAEEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EE5307-6BD7-4C78-A690-22B1770366D5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4792,13 +4795,13 @@
         <v>7473</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4807,13 +4810,13 @@
         <v>12552</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4822,13 +4825,13 @@
         <v>20024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4846,13 @@
         <v>18601</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4858,13 +4861,13 @@
         <v>29117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4873,13 +4876,13 @@
         <v>47718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4897,13 @@
         <v>29930</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -4909,13 +4912,13 @@
         <v>44198</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -4924,13 +4927,13 @@
         <v>74128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4948,13 @@
         <v>39860</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -4960,13 +4963,13 @@
         <v>24014</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4975,13 +4978,13 @@
         <v>63874</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4999,13 @@
         <v>18936</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5017,7 +5020,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5026,13 +5029,13 @@
         <v>20960</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5050,13 @@
         <v>114800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>99</v>
@@ -5062,13 +5065,13 @@
         <v>111905</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>220</v>
@@ -5077,18 +5080,18 @@
         <v>226705</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5100,13 +5103,13 @@
         <v>33491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5115,13 +5118,13 @@
         <v>60039</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -5130,13 +5133,13 @@
         <v>93530</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5154,13 @@
         <v>132096</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -5166,13 +5169,13 @@
         <v>145034</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>260</v>
@@ -5181,13 +5184,13 @@
         <v>277129</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5205,13 @@
         <v>188521</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>203</v>
@@ -5217,13 +5220,13 @@
         <v>219467</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>381</v>
@@ -5232,13 +5235,13 @@
         <v>407988</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5256,13 @@
         <v>162571</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -5268,13 +5271,13 @@
         <v>111140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -5283,13 +5286,13 @@
         <v>273711</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5307,13 @@
         <v>69101</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -5319,13 +5322,13 @@
         <v>41427</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -5334,13 +5337,13 @@
         <v>110528</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5358,13 @@
         <v>585780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>545</v>
@@ -5370,13 +5373,13 @@
         <v>577107</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1096</v>
@@ -5385,18 +5388,18 @@
         <v>1162886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5408,13 +5411,13 @@
         <v>72805</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5423,13 +5426,13 @@
         <v>98020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -5438,13 +5441,13 @@
         <v>170825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5462,13 @@
         <v>195245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>257</v>
@@ -5474,13 +5477,13 @@
         <v>279755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>436</v>
@@ -5489,13 +5492,13 @@
         <v>475000</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5513,13 @@
         <v>290560</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>291</v>
@@ -5525,13 +5528,13 @@
         <v>321719</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M18" s="7">
         <v>560</v>
@@ -5540,13 +5543,13 @@
         <v>612279</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5564,13 @@
         <v>315091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>210</v>
@@ -5576,13 +5579,13 @@
         <v>231104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>502</v>
@@ -5591,13 +5594,13 @@
         <v>546195</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5615,13 @@
         <v>139062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -5627,13 +5630,13 @@
         <v>96214</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -5642,13 +5645,13 @@
         <v>235276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,28 +5666,28 @@
         <v>1012762</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>935</v>
       </c>
       <c r="I21" s="7">
-        <v>1026811</v>
+        <v>1026812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1866</v>
@@ -5693,18 +5696,18 @@
         <v>2039574</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5716,13 +5719,13 @@
         <v>57686</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -5731,13 +5734,13 @@
         <v>85023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -5746,13 +5749,13 @@
         <v>142709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5770,13 @@
         <v>140900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H23" s="7">
         <v>165</v>
@@ -5782,13 +5785,13 @@
         <v>182326</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>287</v>
@@ -5797,13 +5800,13 @@
         <v>323226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5821,13 @@
         <v>210291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H24" s="7">
         <v>221</v>
@@ -5833,13 +5836,13 @@
         <v>245941</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>100</v>
+        <v>425</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -5848,13 +5851,13 @@
         <v>456232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5872,13 @@
         <v>193584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7">
         <v>145</v>
@@ -5884,13 +5887,13 @@
         <v>154652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>323</v>
@@ -5899,13 +5902,13 @@
         <v>348235</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5923,13 @@
         <v>150848</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>95</v>
@@ -5935,13 +5938,13 @@
         <v>105980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>232</v>
@@ -5950,13 +5953,13 @@
         <v>256829</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5974,13 @@
         <v>753309</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>702</v>
@@ -5986,13 +5989,13 @@
         <v>773921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1387</v>
@@ -6001,18 +6004,18 @@
         <v>1527230</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6024,13 +6027,13 @@
         <v>68431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>131</v>
@@ -6039,13 +6042,13 @@
         <v>142847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -6054,13 +6057,13 @@
         <v>211278</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6078,13 @@
         <v>212243</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="H29" s="7">
         <v>312</v>
@@ -6090,13 +6093,13 @@
         <v>324796</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>461</v>
+        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>506</v>
@@ -6105,13 +6108,13 @@
         <v>537039</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>463</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6129,13 @@
         <v>314162</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>465</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="H30" s="7">
         <v>291</v>
@@ -6141,13 +6144,13 @@
         <v>303999</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>598</v>
@@ -6156,13 +6159,13 @@
         <v>618161</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>470</v>
+        <v>81</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6180,13 @@
         <v>223703</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H31" s="7">
         <v>173</v>
@@ -6192,13 +6195,13 @@
         <v>179499</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M31" s="7">
         <v>389</v>
@@ -6207,13 +6210,13 @@
         <v>403202</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6231,13 @@
         <v>122847</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -6243,13 +6246,13 @@
         <v>93669</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -6258,13 +6261,13 @@
         <v>216516</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>487</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6282,13 @@
         <v>941386</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>997</v>
@@ -6294,13 +6297,13 @@
         <v>1044810</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1901</v>
@@ -6309,13 +6312,13 @@
         <v>1986196</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6335,13 @@
         <v>239885</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>246</v>
+        <v>481</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H34" s="7">
         <v>363</v>
@@ -6347,13 +6350,13 @@
         <v>398481</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>119</v>
+        <v>485</v>
       </c>
       <c r="M34" s="7">
         <v>583</v>
@@ -6362,13 +6365,13 @@
         <v>638365</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>203</v>
+        <v>486</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6386,13 @@
         <v>699084</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>488</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H35" s="7">
         <v>899</v>
@@ -6398,13 +6401,13 @@
         <v>961028</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M35" s="7">
         <v>1534</v>
@@ -6413,13 +6416,13 @@
         <v>1660112</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6437,13 @@
         <v>1033464</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H36" s="7">
         <v>1044</v>
@@ -6452,25 +6455,25 @@
         <v>34</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M36" s="7">
         <v>2025</v>
       </c>
       <c r="N36" s="7">
-        <v>2168788</v>
+        <v>2168787</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6488,13 @@
         <v>934809</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H37" s="7">
         <v>656</v>
@@ -6500,13 +6503,13 @@
         <v>700408</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M37" s="7">
         <v>1535</v>
@@ -6515,13 +6518,13 @@
         <v>1635217</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6539,13 @@
         <v>500795</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H38" s="7">
         <v>316</v>
@@ -6551,28 +6554,28 @@
         <v>339314</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M38" s="7">
         <v>793</v>
       </c>
       <c r="N38" s="7">
-        <v>840109</v>
+        <v>840108</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6590,13 @@
         <v>3408036</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>3278</v>
@@ -6602,33 +6605,33 @@
         <v>3534554</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>6470</v>
       </c>
       <c r="N39" s="7">
-        <v>6942591</v>
+        <v>6942590</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6649,7 +6652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC1C78D-8B1A-47D6-AC9E-7D380B7E95C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE58BAD-1B8E-4E16-89C1-501BA2AA7018}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6666,7 +6669,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6773,13 +6776,13 @@
         <v>2988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6788,13 +6791,13 @@
         <v>13673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -6803,13 +6806,13 @@
         <v>16661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6827,13 @@
         <v>23038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>531</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6839,13 +6842,13 @@
         <v>23970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -6854,13 +6857,13 @@
         <v>47008</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>539</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6878,13 @@
         <v>39634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -6890,13 +6893,13 @@
         <v>30408</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -6905,13 +6908,13 @@
         <v>70041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6929,13 @@
         <v>33983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>513</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -6941,13 +6944,13 @@
         <v>33441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>549</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -6956,13 +6959,13 @@
         <v>67424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +6980,13 @@
         <v>16903</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -6992,13 +6995,13 @@
         <v>10988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>561</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -7007,13 +7010,13 @@
         <v>27891</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>559</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +7031,13 @@
         <v>116546</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -7043,13 +7046,13 @@
         <v>112480</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>227</v>
@@ -7058,18 +7061,18 @@
         <v>229026</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7081,13 +7084,13 @@
         <v>38421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7096,13 +7099,13 @@
         <v>71652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>564</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>568</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>418</v>
+        <v>565</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -7111,13 +7114,13 @@
         <v>110073</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>566</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7135,13 @@
         <v>105898</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -7147,13 +7150,13 @@
         <v>134475</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -7162,13 +7165,13 @@
         <v>240373</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7186,13 @@
         <v>223366</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H12" s="7">
         <v>215</v>
@@ -7198,13 +7201,13 @@
         <v>218984</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M12" s="7">
         <v>429</v>
@@ -7213,13 +7216,13 @@
         <v>442349</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7237,13 @@
         <v>134907</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -7249,13 +7252,13 @@
         <v>110904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -7264,10 +7267,10 @@
         <v>245811</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>593</v>
@@ -7288,10 +7291,10 @@
         <v>594</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>480</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -7300,13 +7303,13 @@
         <v>23465</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>598</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7315,13 +7318,13 @@
         <v>74750</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7339,13 @@
         <v>553876</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>551</v>
@@ -7351,13 +7354,13 @@
         <v>559479</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1086</v>
@@ -7366,18 +7369,18 @@
         <v>1113355</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7389,13 +7392,13 @@
         <v>62466</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -7404,13 +7407,13 @@
         <v>83074</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
@@ -7419,13 +7422,13 @@
         <v>145540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>609</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7443,13 @@
         <v>170884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -7455,13 +7458,13 @@
         <v>257640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -7470,13 +7473,13 @@
         <v>428524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7494,13 @@
         <v>407268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H18" s="7">
         <v>405</v>
@@ -7506,13 +7509,13 @@
         <v>429716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M18" s="7">
         <v>784</v>
@@ -7521,13 +7524,13 @@
         <v>836984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>626</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7545,13 @@
         <v>286312</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -7557,13 +7560,13 @@
         <v>220745</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M19" s="7">
         <v>476</v>
@@ -7572,13 +7575,13 @@
         <v>507057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>516</v>
+        <v>629</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7596,13 @@
         <v>93340</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -7608,13 +7611,13 @@
         <v>50712</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>638</v>
+        <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -7623,13 +7626,13 @@
         <v>144052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>638</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7647,13 @@
         <v>1020270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>976</v>
@@ -7659,13 +7662,13 @@
         <v>1041887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1925</v>
@@ -7674,18 +7677,18 @@
         <v>2062157</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7697,13 +7700,13 @@
         <v>37075</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>644</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -7712,13 +7715,13 @@
         <v>51690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>644</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -7727,13 +7730,13 @@
         <v>88766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>648</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7751,13 @@
         <v>85545</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>446</v>
+        <v>647</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -7763,13 +7766,13 @@
         <v>150017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>650</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>653</v>
       </c>
       <c r="M23" s="7">
         <v>217</v>
@@ -7778,10 +7781,10 @@
         <v>235561</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>655</v>
@@ -7799,13 +7802,13 @@
         <v>306973</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>175</v>
+        <v>656</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H24" s="7">
         <v>265</v>
@@ -7817,7 +7820,7 @@
         <v>44</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>658</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>659</v>
@@ -7835,7 +7838,7 @@
         <v>661</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,10 +7853,10 @@
         <v>223607</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>664</v>
@@ -7871,7 +7874,7 @@
         <v>666</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>667</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -7880,13 +7883,13 @@
         <v>443793</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,10 +7922,10 @@
         <v>673</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M26" s="7">
         <v>176</v>
@@ -7931,13 +7934,13 @@
         <v>186121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7955,13 @@
         <v>758688</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>734</v>
@@ -7967,13 +7970,13 @@
         <v>782916</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1429</v>
@@ -7982,18 +7985,18 @@
         <v>1541603</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8005,13 +8008,13 @@
         <v>76158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H28" s="7">
         <v>93</v>
@@ -8020,13 +8023,13 @@
         <v>104015</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>242</v>
+        <v>674</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>682</v>
+        <v>526</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -8038,10 +8041,10 @@
         <v>683</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8059,13 @@
         <v>167711</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>686</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>574</v>
+        <v>416</v>
       </c>
       <c r="H29" s="7">
         <v>207</v>
@@ -8071,13 +8074,13 @@
         <v>227378</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>688</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>549</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>377</v>
@@ -8086,13 +8089,13 @@
         <v>395089</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8110,13 @@
         <v>329172</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>694</v>
       </c>
       <c r="H30" s="7">
         <v>351</v>
@@ -8122,13 +8125,13 @@
         <v>377168</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>697</v>
       </c>
       <c r="M30" s="7">
         <v>681</v>
@@ -8137,13 +8140,13 @@
         <v>706341</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8161,13 @@
         <v>247379</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>702</v>
       </c>
       <c r="H31" s="7">
         <v>211</v>
@@ -8173,13 +8176,13 @@
         <v>232743</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="M31" s="7">
         <v>460</v>
@@ -8188,13 +8191,13 @@
         <v>480123</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8212,13 @@
         <v>113184</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>708</v>
+        <v>148</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>709</v>
+        <v>487</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>281</v>
+        <v>707</v>
       </c>
       <c r="H32" s="7">
         <v>92</v>
@@ -8224,13 +8227,13 @@
         <v>95930</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
@@ -8239,13 +8242,13 @@
         <v>209114</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8263,13 @@
         <v>933606</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>954</v>
@@ -8275,13 +8278,13 @@
         <v>1037234</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1882</v>
@@ -8290,13 +8293,13 @@
         <v>1970840</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8316,13 @@
         <v>217108</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>713</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>714</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>715</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>298</v>
@@ -8328,10 +8331,10 @@
         <v>324104</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>717</v>
@@ -8343,13 +8346,13 @@
         <v>541213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>415</v>
+        <v>718</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>147</v>
+        <v>364</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>718</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,10 +8370,10 @@
         <v>719</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>476</v>
+        <v>720</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H35" s="7">
         <v>739</v>
@@ -8379,13 +8382,13 @@
         <v>793479</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>270</v>
+        <v>511</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M35" s="7">
         <v>1274</v>
@@ -8394,13 +8397,13 @@
         <v>1346555</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8418,13 @@
         <v>1306412</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H36" s="7">
         <v>1267</v>
@@ -8430,13 +8433,13 @@
         <v>1336665</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M36" s="7">
         <v>2508</v>
@@ -8445,13 +8448,13 @@
         <v>2643077</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,10 +8472,10 @@
         <v>735</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>736</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>464</v>
+        <v>737</v>
       </c>
       <c r="H37" s="7">
         <v>771</v>
@@ -8481,13 +8484,13 @@
         <v>818019</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>737</v>
+        <v>414</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>516</v>
+        <v>739</v>
       </c>
       <c r="M37" s="7">
         <v>1657</v>
@@ -8496,10 +8499,10 @@
         <v>1744207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>738</v>
+        <v>437</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>739</v>
+        <v>576</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>740</v>
@@ -8523,7 +8526,7 @@
         <v>742</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>743</v>
+        <v>29</v>
       </c>
       <c r="H38" s="7">
         <v>254</v>
@@ -8532,13 +8535,13 @@
         <v>261728</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>285</v>
+        <v>642</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>609</v>
+        <v>743</v>
       </c>
       <c r="M38" s="7">
         <v>612</v>
@@ -8553,7 +8556,7 @@
         <v>745</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>681</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8571,13 @@
         <v>3382985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>3329</v>
@@ -8583,13 +8586,13 @@
         <v>3533996</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>6549</v>
@@ -8598,18 +8601,18 @@
         <v>6916981</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
